--- a/rezervito-hw-03/Traceability Matrix/Matrix - Use Cases and Referenced Requirements.xlsx
+++ b/rezervito-hw-03/Traceability Matrix/Matrix - Use Cases and Referenced Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\rezervito-hw-03\Traceability Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88C7A4F-A23A-4421-9078-F7EB83B1404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D3A0C33-098B-4654-B134-3318DD15CF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>ü</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>REQ-7-3.1 Restaurant Manager Account Creation</t>
-  </si>
-  <si>
-    <t>REQ-7-4 Apply Updates</t>
   </si>
   <si>
     <t>REQ-7-5 Admin Report Bugs</t>
@@ -620,7 +617,7 @@
     <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="101">
     <dxf>
       <fill>
         <patternFill>
@@ -1148,16 +1145,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2030,7 +2017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA29"/>
+  <dimension ref="A1:AZ29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2043,7 +2030,7 @@
     <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2066,14 +2053,14 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="22">
-        <v>43969.536226851851</v>
+        <v>43970.667627314811</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -2091,7 +2078,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2110,7 +2097,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:53" s="16" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="16" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
@@ -2264,16 +2251,13 @@
       <c r="AZ4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BA4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2326,14 +2310,13 @@
       <c r="AX5" s="20"/>
       <c r="AY5" s="20"/>
       <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2386,14 +2369,13 @@
       <c r="AX6" s="20"/>
       <c r="AY6" s="20"/>
       <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2448,14 +2430,13 @@
       <c r="AX7" s="20"/>
       <c r="AY7" s="20"/>
       <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -2497,10 +2478,10 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="20"/>
       <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20" t="s">
+      <c r="AR8" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="AS8" s="20"/>
       <c r="AT8" s="20"/>
       <c r="AU8" s="20"/>
       <c r="AV8" s="20"/>
@@ -2508,14 +2489,13 @@
       <c r="AX8" s="20"/>
       <c r="AY8" s="20"/>
       <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -2570,14 +2550,13 @@
       <c r="AX9" s="20"/>
       <c r="AY9" s="20"/>
       <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -2636,14 +2615,13 @@
       <c r="AX10" s="20"/>
       <c r="AY10" s="20"/>
       <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2696,14 +2674,13 @@
       <c r="AX11" s="20"/>
       <c r="AY11" s="20"/>
       <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2762,14 +2739,13 @@
       <c r="AX12" s="20"/>
       <c r="AY12" s="20"/>
       <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>0</v>
@@ -2822,14 +2798,13 @@
       <c r="AX13" s="20"/>
       <c r="AY13" s="20"/>
       <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2882,14 +2857,13 @@
       <c r="AX14" s="20"/>
       <c r="AY14" s="20"/>
       <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -2942,14 +2916,13 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
@@ -3002,14 +2975,13 @@
       <c r="AX16" s="20"/>
       <c r="AY16" s="20"/>
       <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
     </row>
-    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3062,14 +3034,13 @@
       <c r="AX17" s="20"/>
       <c r="AY17" s="20"/>
       <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
     </row>
-    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -3124,14 +3095,13 @@
       <c r="AX18" s="20"/>
       <c r="AY18" s="20"/>
       <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
     </row>
-    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3184,14 +3154,13 @@
       <c r="AX19" s="20"/>
       <c r="AY19" s="20"/>
       <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
     </row>
-    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -3244,14 +3213,13 @@
       <c r="AX20" s="20"/>
       <c r="AY20" s="20"/>
       <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
     </row>
-    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -3306,14 +3274,13 @@
       <c r="AX21" s="20"/>
       <c r="AY21" s="20"/>
       <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
     </row>
-    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -3366,14 +3333,13 @@
       <c r="AX22" s="20"/>
       <c r="AY22" s="20"/>
       <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
     </row>
-    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -3428,14 +3394,13 @@
       <c r="AX23" s="20"/>
       <c r="AY23" s="20"/>
       <c r="AZ23" s="20"/>
-      <c r="BA23" s="20"/>
     </row>
-    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -3490,14 +3455,13 @@
       <c r="AX24" s="20"/>
       <c r="AY24" s="20"/>
       <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
     </row>
-    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -3550,14 +3514,13 @@
       <c r="AX25" s="20"/>
       <c r="AY25" s="20"/>
       <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
     </row>
-    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -3614,14 +3577,13 @@
       <c r="AX26" s="20"/>
       <c r="AY26" s="20"/>
       <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
     </row>
-    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -3680,14 +3642,13 @@
       <c r="AX27" s="20"/>
       <c r="AY27" s="20"/>
       <c r="AZ27" s="20"/>
-      <c r="BA27" s="20"/>
     </row>
-    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3742,9 +3703,8 @@
       <c r="AX28" s="20"/>
       <c r="AY28" s="20"/>
       <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
     </row>
-    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="19"/>
@@ -3754,252 +3714,247 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="AS4">
+    <cfRule type="expression" dxfId="99" priority="56">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="97" priority="96">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="96" priority="97">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="95" priority="94">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="94" priority="95">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="93" priority="92">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="92" priority="93">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="91" priority="90">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="90" priority="91">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="expression" dxfId="89" priority="88">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="88" priority="89">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="87" priority="86">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="expression" dxfId="86" priority="87">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="85" priority="84">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="expression" dxfId="84" priority="85">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="expression" dxfId="83" priority="82">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="expression" dxfId="82" priority="83">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="expression" dxfId="81" priority="80">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="expression" dxfId="80" priority="81">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="expression" dxfId="79" priority="78">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="expression" dxfId="77" priority="76">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="expression" dxfId="75" priority="74">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="expression" dxfId="73" priority="72">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4">
+    <cfRule type="expression" dxfId="71" priority="70">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4">
+    <cfRule type="expression" dxfId="70" priority="71">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="expression" dxfId="69" priority="68">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4">
+    <cfRule type="expression" dxfId="67" priority="66">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4">
+    <cfRule type="expression" dxfId="65" priority="64">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4">
+    <cfRule type="expression" dxfId="64" priority="65">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4">
+    <cfRule type="expression" dxfId="63" priority="62">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4">
+    <cfRule type="expression" dxfId="62" priority="63">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4">
+    <cfRule type="expression" dxfId="61" priority="60">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN4">
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ4">
+    <cfRule type="expression" dxfId="59" priority="58">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4">
+    <cfRule type="expression" dxfId="58" priority="59">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU4">
+    <cfRule type="expression" dxfId="57" priority="54">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4">
+    <cfRule type="expression" dxfId="55" priority="52">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AT4">
-    <cfRule type="expression" dxfId="100" priority="56">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="98" priority="97">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="96" priority="95">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="95" priority="96">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="94" priority="93">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="92" priority="91">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="90" priority="89">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="89" priority="90">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="88" priority="87">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="86" priority="85">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="expression" dxfId="84" priority="83">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="82" priority="81">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="expression" dxfId="80" priority="79">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="expression" dxfId="78" priority="77">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
-    <cfRule type="expression" dxfId="76" priority="75">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4">
-    <cfRule type="expression" dxfId="74" priority="73">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE4">
-    <cfRule type="expression" dxfId="72" priority="71">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD4">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4">
-    <cfRule type="expression" dxfId="70" priority="69">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF4">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4">
-    <cfRule type="expression" dxfId="68" priority="67">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4">
-    <cfRule type="expression" dxfId="67" priority="68">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK4">
-    <cfRule type="expression" dxfId="66" priority="65">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4">
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM4">
-    <cfRule type="expression" dxfId="64" priority="63">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO4">
-    <cfRule type="expression" dxfId="62" priority="61">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN4">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4">
-    <cfRule type="expression" dxfId="60" priority="59">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP4">
-    <cfRule type="expression" dxfId="59" priority="60">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS4">
-    <cfRule type="expression" dxfId="58" priority="57">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR4">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU4">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY4">
+    <cfRule type="expression" dxfId="53" priority="50">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4">
-    <cfRule type="expression" dxfId="55" priority="54">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW4">
-    <cfRule type="expression" dxfId="54" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4">
-    <cfRule type="expression" dxfId="53" priority="52">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY4">
-    <cfRule type="expression" dxfId="52" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4">
-    <cfRule type="expression" dxfId="51" priority="50">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA4">
     <cfRule type="expression" dxfId="48" priority="49">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
@@ -4009,7 +3964,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:BA5">
+  <conditionalFormatting sqref="D5:AZ5">
     <cfRule type="expression" dxfId="46" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4019,7 +3974,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:BA6">
+  <conditionalFormatting sqref="D6:AZ6">
     <cfRule type="expression" dxfId="44" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4029,7 +3984,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:BA7">
+  <conditionalFormatting sqref="D7:AZ7">
     <cfRule type="expression" dxfId="42" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4039,7 +3994,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:BA8">
+  <conditionalFormatting sqref="D8:AZ8">
     <cfRule type="expression" dxfId="40" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4049,7 +4004,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:BA9">
+  <conditionalFormatting sqref="D9:AZ9">
     <cfRule type="expression" dxfId="38" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4059,7 +4014,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:BA10">
+  <conditionalFormatting sqref="D10:AZ10">
     <cfRule type="expression" dxfId="36" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4069,7 +4024,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:BA11">
+  <conditionalFormatting sqref="D11:AZ11">
     <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4079,7 +4034,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:BA12">
+  <conditionalFormatting sqref="D12:AZ12">
     <cfRule type="expression" dxfId="32" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4089,7 +4044,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:BA13">
+  <conditionalFormatting sqref="D13:AZ13">
     <cfRule type="expression" dxfId="30" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4099,7 +4054,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:BA14">
+  <conditionalFormatting sqref="D14:AZ14">
     <cfRule type="expression" dxfId="28" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4109,7 +4064,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:BA15">
+  <conditionalFormatting sqref="D15:AZ15">
     <cfRule type="expression" dxfId="26" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4119,7 +4074,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:BA16">
+  <conditionalFormatting sqref="D16:AZ16">
     <cfRule type="expression" dxfId="24" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4129,7 +4084,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:BA17">
+  <conditionalFormatting sqref="D17:AZ17">
     <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4139,7 +4094,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:BA18">
+  <conditionalFormatting sqref="D18:AZ18">
     <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4149,7 +4104,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:BA19">
+  <conditionalFormatting sqref="D19:AZ19">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4159,7 +4114,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:BA20">
+  <conditionalFormatting sqref="D20:AZ20">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4169,7 +4124,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:BA21">
+  <conditionalFormatting sqref="D21:AZ21">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4179,7 +4134,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:BA22">
+  <conditionalFormatting sqref="D22:AZ22">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4189,7 +4144,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:BA23">
+  <conditionalFormatting sqref="D23:AZ23">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4199,7 +4154,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:BA24">
+  <conditionalFormatting sqref="D24:AZ24">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4209,7 +4164,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:BA25">
+  <conditionalFormatting sqref="D25:AZ25">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4219,7 +4174,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:BA26">
+  <conditionalFormatting sqref="D26:AZ26">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4229,7 +4184,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:BA27">
+  <conditionalFormatting sqref="D27:AZ27">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4239,36 +4194,36 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:BA28">
+  <conditionalFormatting sqref="D28:AZ28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-1" xr:uid="{335E9915-2FE0-4E9B-8A57-DD6AB73A4BFD}"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-3" xr:uid="{A65B52FE-056C-4540-A286-172DF4A763D1}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-4" xr:uid="{1EB4C647-4EBF-4903-8AB2-B1CD06F73075}"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-5" xr:uid="{23E0944A-1CC2-4D77-9B91-B5E5281504EE}"/>
-    <hyperlink ref="B9" r:id="rId5" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-6" xr:uid="{EA80252C-AF18-47C4-A53C-81F5681F437E}"/>
-    <hyperlink ref="B10" r:id="rId6" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-1" xr:uid="{FB65CBF4-BC24-48EE-A08F-6568E64C22BE}"/>
-    <hyperlink ref="B11" r:id="rId7" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-2" xr:uid="{A4C314D2-3DD9-4835-BCBA-4EEBE9CCEC31}"/>
-    <hyperlink ref="B12" r:id="rId8" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-3" xr:uid="{318B7EF8-2F90-4F3B-A133-8897E104CB77}"/>
-    <hyperlink ref="B13" r:id="rId9" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-4" xr:uid="{C030E2AB-AC64-46BB-B90B-D47430847E90}"/>
-    <hyperlink ref="B14" r:id="rId10" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-5" xr:uid="{8EBA4E87-CA0C-45BE-8F4E-BF15B3A646CC}"/>
-    <hyperlink ref="B15" r:id="rId11" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-6" xr:uid="{6728139F-E058-4C26-9A5C-770E1F8E3617}"/>
-    <hyperlink ref="B16" r:id="rId12" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-7" xr:uid="{FCE71336-3CF7-4605-B2F3-AB628C0201E1}"/>
-    <hyperlink ref="B17" r:id="rId13" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-8" xr:uid="{7925F67F-9A33-46E7-A8AE-A50D7505BF82}"/>
-    <hyperlink ref="B18" r:id="rId14" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-1" xr:uid="{026A5FD9-90F7-4088-83E8-CAD458E9BB73}"/>
-    <hyperlink ref="B19" r:id="rId15" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-2" xr:uid="{2A6CCC94-0E0C-4E95-AA84-6CE36B4562C1}"/>
-    <hyperlink ref="B20" r:id="rId16" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-3" xr:uid="{1116FC95-2DC2-469B-B27E-F52C42BC2829}"/>
-    <hyperlink ref="B21" r:id="rId17" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-4" xr:uid="{57A82B91-414E-42EA-B4FF-2F74E521F223}"/>
-    <hyperlink ref="B22" r:id="rId18" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-5" xr:uid="{6277B0FA-88AB-4C13-A226-EC9F216448B2}"/>
-    <hyperlink ref="B23" r:id="rId19" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-1" xr:uid="{829B5BD6-5248-41C8-BB45-124782FD9846}"/>
-    <hyperlink ref="B24" r:id="rId20" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-2" xr:uid="{F5C628DA-9287-4D7D-A193-3D1EDE582D37}"/>
-    <hyperlink ref="B25" r:id="rId21" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-3" xr:uid="{CD5790F1-5A96-4686-8BA1-137DBA2281BA}"/>
-    <hyperlink ref="B26" r:id="rId22" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-4" xr:uid="{75C349D8-9A5D-4E3D-BAD3-A937CD359F4D}"/>
-    <hyperlink ref="B27" r:id="rId23" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-5" xr:uid="{B02939B5-C6F8-4295-9B92-165903FDC00C}"/>
-    <hyperlink ref="B28" r:id="rId24" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-12-1" xr:uid="{1401AE3F-A06A-40A7-BC63-477BBD99CA6B}"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-1" xr:uid="{E6997CA1-82E0-4903-9572-34284E9D0D24}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-3" xr:uid="{4AD230D1-2385-4FDA-A9AF-A82E37394AA2}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-4" xr:uid="{AD0E5ADB-2537-4D35-BA41-0344F1EDF6FA}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-5" xr:uid="{77E857F2-31CC-4BC8-AB6D-D0D8ABF52995}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-6" xr:uid="{F2C02F2B-0C98-4602-9ED7-7BAFD6F3D757}"/>
+    <hyperlink ref="B10" r:id="rId6" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-1" xr:uid="{8892A341-A9DF-4877-9397-A9792A2005DA}"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-2" xr:uid="{C09ED19D-A022-4569-ADAF-ACC87CDF7B3F}"/>
+    <hyperlink ref="B12" r:id="rId8" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-3" xr:uid="{A2090352-76D8-4E49-9144-23EF3F03EC9A}"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-4" xr:uid="{8961E2D7-BF76-40C8-A7D8-EC14692AA5D1}"/>
+    <hyperlink ref="B14" r:id="rId10" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-5" xr:uid="{907B0036-A42C-43E9-9B28-E21EB4213BC7}"/>
+    <hyperlink ref="B15" r:id="rId11" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-6" xr:uid="{18CA24BF-9257-4562-82A6-8CB00007E0F4}"/>
+    <hyperlink ref="B16" r:id="rId12" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-7" xr:uid="{6C32A6AD-FBC5-4F27-B39D-F9CB2EC83252}"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-9-8" xr:uid="{BDF6783D-10EA-4633-8E4E-778775C24707}"/>
+    <hyperlink ref="B18" r:id="rId14" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-1" xr:uid="{EDB26B0E-4EF7-41AB-A8BA-C1D986E61E72}"/>
+    <hyperlink ref="B19" r:id="rId15" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-2" xr:uid="{0FA33350-FB59-4A1A-BA03-E201494F82E3}"/>
+    <hyperlink ref="B20" r:id="rId16" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-3" xr:uid="{35BFE1C1-A6CD-4480-A40D-B0FB59F0C734}"/>
+    <hyperlink ref="B21" r:id="rId17" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-4" xr:uid="{F5DD19C1-B430-461C-97F7-914DC02BC3DE}"/>
+    <hyperlink ref="B22" r:id="rId18" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-10-5" xr:uid="{99E4BDE1-7FA9-46A0-AC76-54E29BC3E10F}"/>
+    <hyperlink ref="B23" r:id="rId19" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-1" xr:uid="{D0BFA4F8-01B5-4F70-BC4A-AA9DE98BB879}"/>
+    <hyperlink ref="B24" r:id="rId20" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-2" xr:uid="{AA913B30-FEB4-42B7-B770-73FB6F5402EC}"/>
+    <hyperlink ref="B25" r:id="rId21" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-3" xr:uid="{60041E1A-07C3-49CC-9616-DC0FA56EF443}"/>
+    <hyperlink ref="B26" r:id="rId22" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-4" xr:uid="{75728B7E-5100-4514-A95A-D9E573206707}"/>
+    <hyperlink ref="B27" r:id="rId23" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-11-5" xr:uid="{41FC665C-2E59-4AE2-B99F-05E9CCB6811E}"/>
+    <hyperlink ref="B28" r:id="rId24" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?UC-12-1" xr:uid="{CCF93A7B-480A-42AA-B2E8-15415F2E75CA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId25"/>
